--- a/src/stp/database/2025-mens-club-world-cup.xlsx
+++ b/src/stp/database/2025-mens-club-world-cup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE201AE-6285-4542-9723-CC8EA3390976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1F96B7-783C-944F-9D05-DFAEF7B5C8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="940" windowWidth="33880" windowHeight="14380" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="160" yWindow="940" windowWidth="33880" windowHeight="14380" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -1359,7 +1359,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1477,13 +1483,17 @@
     <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team"/>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team"/>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="1">
+      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="0">
+      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1520,10 +1530,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FB1BCE-0386-7343-BA89-F3A876D40CE6}" name="club" displayName="club" ref="A1:I33" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FB1BCE-0386-7343-BA89-F3A876D40CE6}" name="club" displayName="club" ref="A1:I33" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="A1:I33" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1CF80809-59D5-0E41-94B7-20DC62F312AB}" name="key" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{1CF80809-59D5-0E41-94B7-20DC62F312AB}" name="key" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{B947EB64-5C2B-394D-8D82-4F11121098E6}" name="en"/>
     <tableColumn id="3" xr3:uid="{3563E293-2C65-7849-A79A-437401178D48}" name="es"/>
     <tableColumn id="4" xr3:uid="{F533366D-F4E8-9147-9066-BEA50DE073C4}" name="it"/>
@@ -1544,28 +1554,28 @@
     <sortCondition ref="B1:B64"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5339E67A-26E9-8045-9783-092F1D6A8BCD}" name="date" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5339E67A-26E9-8045-9783-092F1D6A8BCD}" name="date" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{6D744BB8-F3BD-5849-8834-2379D5480A47}" name="match"/>
     <tableColumn id="3" xr3:uid="{A77BED29-654E-8F4D-B194-94DE3DE7A4A6}" name="home"/>
     <tableColumn id="4" xr3:uid="{0D4EAC4F-1982-C748-A2ED-A83D7C3254B7}" name="away"/>
-    <tableColumn id="5" xr3:uid="{04D5479C-F511-3445-AE4D-6B902FA0E889}" name="time" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{04D5479C-F511-3445-AE4D-6B902FA0E889}" name="time" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{5509490B-711E-AB46-BCD9-0F1210AD9377}" name="location"/>
-    <tableColumn id="7" xr3:uid="{9F208AC5-6484-DA48-AA8F-77DE0A81BE38}" name="datetime" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{9F208AC5-6484-DA48-AA8F-77DE0A81BE38}" name="datetime" dataDxfId="7">
       <calculatedColumnFormula>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{124115E5-B1FC-184D-9D81-D1C46CBE1BB2}" name="home-club" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{124115E5-B1FC-184D-9D81-D1C46CBE1BB2}" name="home-club" dataDxfId="6">
       <calculatedColumnFormula>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{69B2A819-5084-CE42-A122-5F4B68D1E3B8}" name="away-club" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{69B2A819-5084-CE42-A122-5F4B68D1E3B8}" name="away-club" dataDxfId="5">
       <calculatedColumnFormula>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B55ACCD1-E874-2840-815C-2C70AD4D5185}" name="home-seed" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{B55ACCD1-E874-2840-815C-2C70AD4D5185}" name="home-seed" dataDxfId="4">
       <calculatedColumnFormula>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{363BB277-7CB6-3741-A456-52DFA684DB61}" name="away-seed" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{363BB277-7CB6-3741-A456-52DFA684DB61}" name="away-seed" dataDxfId="3">
       <calculatedColumnFormula>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6FC9520B-CB5E-C842-8C34-22324BE94F5F}" name="venue" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{6FC9520B-CB5E-C842-8C34-22324BE94F5F}" name="venue" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1872,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2356,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2420,6 +2430,14 @@
       <c r="E2">
         <v>5</v>
       </c>
+      <c r="F2" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>AHL</v>
+      </c>
+      <c r="G2" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>MIA</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2441,6 +2459,14 @@
       <c r="E3">
         <v>3</v>
       </c>
+      <c r="F3" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BAY</v>
+      </c>
+      <c r="G3" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AKL</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2462,6 +2488,14 @@
       <c r="E4">
         <v>4</v>
       </c>
+      <c r="F4" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PSG</v>
+      </c>
+      <c r="G4" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ATM</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2483,6 +2517,14 @@
       <c r="E5">
         <v>7</v>
       </c>
+      <c r="F5" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PAL</v>
+      </c>
+      <c r="G5" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2504,6 +2546,14 @@
       <c r="E6">
         <v>10</v>
       </c>
+      <c r="F6" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BOT</v>
+      </c>
+      <c r="G6" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SEA</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2525,6 +2575,14 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CHE</v>
+      </c>
+      <c r="G7" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>LAF</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2546,6 +2604,14 @@
       <c r="E8">
         <v>5</v>
       </c>
+      <c r="F8" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BOC</v>
+      </c>
+      <c r="G8" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SLB</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2567,6 +2633,14 @@
       <c r="E9">
         <v>9</v>
       </c>
+      <c r="F9" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>FLA</v>
+      </c>
+      <c r="G9" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>EST</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2588,6 +2662,14 @@
       <c r="E10">
         <v>7</v>
       </c>
+      <c r="F10" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>FLU</v>
+      </c>
+      <c r="G10" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BVB</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2609,6 +2691,14 @@
       <c r="E11">
         <v>10</v>
       </c>
+      <c r="F11" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>RIV</v>
+      </c>
+      <c r="G11" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>URD</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2630,6 +2720,14 @@
       <c r="E12">
         <v>8</v>
       </c>
+      <c r="F12" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>UHD</v>
+      </c>
+      <c r="G12" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>MSU</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2651,6 +2749,14 @@
       <c r="E13">
         <v>4</v>
       </c>
+      <c r="F13" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CFM</v>
+      </c>
+      <c r="G13" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>INT</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2672,6 +2778,14 @@
       <c r="E14">
         <v>9</v>
       </c>
+      <c r="F14" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MCI</v>
+      </c>
+      <c r="G14" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>WAC</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2693,6 +2807,14 @@
       <c r="E15">
         <v>5</v>
       </c>
+      <c r="F15" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>RMA</v>
+      </c>
+      <c r="G15" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>HIL</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2714,6 +2836,14 @@
       <c r="E16">
         <v>3</v>
       </c>
+      <c r="F16" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PAC</v>
+      </c>
+      <c r="G16" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SAL</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2735,6 +2865,14 @@
       <c r="E17">
         <v>11</v>
       </c>
+      <c r="F17" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>AIN</v>
+      </c>
+      <c r="G17" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>JUV</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2756,6 +2894,14 @@
       <c r="E18">
         <v>7</v>
       </c>
+      <c r="F18" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PAL</v>
+      </c>
+      <c r="G18" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AHL</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2777,6 +2923,14 @@
       <c r="E19">
         <v>1</v>
       </c>
+      <c r="F19" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MIA</v>
+      </c>
+      <c r="G19" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2798,6 +2952,14 @@
       <c r="E20">
         <v>10</v>
       </c>
+      <c r="F20" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SEA</v>
+      </c>
+      <c r="G20" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ATM</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2819,6 +2981,14 @@
       <c r="E21">
         <v>4</v>
       </c>
+      <c r="F21" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PSG</v>
+      </c>
+      <c r="G21" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BOT</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2840,6 +3010,14 @@
       <c r="E22">
         <v>8</v>
       </c>
+      <c r="F22" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SLB</v>
+      </c>
+      <c r="G22" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AKL</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2861,6 +3039,14 @@
       <c r="E23">
         <v>9</v>
       </c>
+      <c r="F23" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>FLA</v>
+      </c>
+      <c r="G23" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CHE</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2882,6 +3068,14 @@
       <c r="E24">
         <v>6</v>
       </c>
+      <c r="F24" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>LAF</v>
+      </c>
+      <c r="G24" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>EST</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2903,6 +3097,14 @@
       <c r="E25">
         <v>5</v>
       </c>
+      <c r="F25" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BAY</v>
+      </c>
+      <c r="G25" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BOC</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2924,6 +3126,14 @@
       <c r="E26">
         <v>3</v>
       </c>
+      <c r="F26" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MSU</v>
+      </c>
+      <c r="G26" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BVB</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2945,6 +3155,14 @@
       <c r="E27">
         <v>10</v>
       </c>
+      <c r="F27" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>INT</v>
+      </c>
+      <c r="G27" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>URD</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2966,6 +3184,14 @@
       <c r="E28">
         <v>7</v>
       </c>
+      <c r="F28" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>FLU</v>
+      </c>
+      <c r="G28" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>UHD</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2987,6 +3213,14 @@
       <c r="E29">
         <v>4</v>
       </c>
+      <c r="F29" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>RIV</v>
+      </c>
+      <c r="G29" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CFM</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3008,6 +3242,14 @@
       <c r="E30">
         <v>9</v>
       </c>
+      <c r="F30" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>JUV</v>
+      </c>
+      <c r="G30" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>WAC</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3029,6 +3271,14 @@
       <c r="E31">
         <v>2</v>
       </c>
+      <c r="F31" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>RMA</v>
+      </c>
+      <c r="G31" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAC</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3050,6 +3300,14 @@
       <c r="E32">
         <v>11</v>
       </c>
+      <c r="F32" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SAL</v>
+      </c>
+      <c r="G32" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>HIL</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3071,6 +3329,14 @@
       <c r="E33">
         <v>1</v>
       </c>
+      <c r="F33" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MCI</v>
+      </c>
+      <c r="G33" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AIN</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3092,6 +3358,14 @@
       <c r="E34">
         <v>10</v>
       </c>
+      <c r="F34" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SEA</v>
+      </c>
+      <c r="G34" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PSG</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3113,6 +3387,14 @@
       <c r="E35">
         <v>4</v>
       </c>
+      <c r="F35" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ATM</v>
+      </c>
+      <c r="G35" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BOT</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3134,6 +3416,14 @@
       <c r="E36">
         <v>5</v>
       </c>
+      <c r="F36" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MIA</v>
+      </c>
+      <c r="G36" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAL</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3155,6 +3445,14 @@
       <c r="E37">
         <v>7</v>
       </c>
+      <c r="F37" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
+      <c r="G37" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AHL</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -3176,6 +3474,14 @@
       <c r="E38">
         <v>6</v>
       </c>
+      <c r="F38" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>AKL</v>
+      </c>
+      <c r="G38" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BOC</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3197,6 +3503,14 @@
       <c r="E39">
         <v>2</v>
       </c>
+      <c r="F39" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SLB</v>
+      </c>
+      <c r="G39" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BAY</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -3218,6 +3532,14 @@
       <c r="E40">
         <v>8</v>
       </c>
+      <c r="F40" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>LAF</v>
+      </c>
+      <c r="G40" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>FLA</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3239,6 +3561,14 @@
       <c r="E41">
         <v>9</v>
       </c>
+      <c r="F41" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>EST</v>
+      </c>
+      <c r="G41" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CHE</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -3260,6 +3590,14 @@
       <c r="E42">
         <v>3</v>
       </c>
+      <c r="F42" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BVB</v>
+      </c>
+      <c r="G42" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>UHD</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -3281,6 +3619,14 @@
       <c r="E43">
         <v>5</v>
       </c>
+      <c r="F43" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MSU</v>
+      </c>
+      <c r="G43" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>FLU</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3302,6 +3648,14 @@
       <c r="E44">
         <v>10</v>
       </c>
+      <c r="F44" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>INT</v>
+      </c>
+      <c r="G44" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>RIV</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3323,6 +3677,14 @@
       <c r="E45">
         <v>4</v>
       </c>
+      <c r="F45" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>URD</v>
+      </c>
+      <c r="G45" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CFM</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3344,6 +3706,14 @@
       <c r="E46">
         <v>8</v>
       </c>
+      <c r="F46" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>JUV</v>
+      </c>
+      <c r="G46" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>MCI</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -3365,6 +3735,14 @@
       <c r="E47">
         <v>11</v>
       </c>
+      <c r="F47" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>WAC</v>
+      </c>
+      <c r="G47" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AIN</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -3386,6 +3764,14 @@
       <c r="E48">
         <v>6</v>
       </c>
+      <c r="F48" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>HIL</v>
+      </c>
+      <c r="G48" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAC</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -3406,6 +3792,14 @@
       </c>
       <c r="E49">
         <v>9</v>
+      </c>
+      <c r="F49" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SAL</v>
+      </c>
+      <c r="G49" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>RMA</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>

--- a/src/stp/database/2025-mens-club-world-cup.xlsx
+++ b/src/stp/database/2025-mens-club-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1F96B7-783C-944F-9D05-DFAEF7B5C8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630FD53B-FDEC-8042-9076-974E6E98EF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="940" windowWidth="33880" windowHeight="14380" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="160" yWindow="940" windowWidth="33880" windowHeight="14380" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="404">
   <si>
     <t>A1</t>
   </si>
@@ -316,9 +316,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -370,27 +367,6 @@
     <t>venue.11</t>
   </si>
   <si>
-    <t>Club World Cup 2025 in USA</t>
-  </si>
-  <si>
-    <t>Mundial de Clubes 2025 en EE.UU.</t>
-  </si>
-  <si>
-    <t>Mondiali per club 2025 negli Stati Uniti</t>
-  </si>
-  <si>
-    <t>Coupe du monde des clubs 2025 aux États-Unis</t>
-  </si>
-  <si>
-    <t>Klub-Weltmeisterschaft 2025 in den USA</t>
-  </si>
-  <si>
-    <t>WK voor clubs 2025 in de VS</t>
-  </si>
-  <si>
-    <t>جام باشگاه های جهان 2025 آمریکا</t>
-  </si>
-  <si>
     <t>EE.UU</t>
   </si>
   <si>
@@ -583,27 +559,6 @@
     <t>SAL</t>
   </si>
   <si>
-    <t>CWC 2025 Schedule / Scores</t>
-  </si>
-  <si>
-    <t>Calendario/puntuaciones del CWC 2025</t>
-  </si>
-  <si>
-    <t>Programma / punteggi CWC 2025</t>
-  </si>
-  <si>
-    <t>Calendrier / scores du CWC 2025</t>
-  </si>
-  <si>
-    <t>CWC 2025 Zeitplan / Ergebnisse</t>
-  </si>
-  <si>
-    <t>CWC 2025 Schema / Uitslagen</t>
-  </si>
-  <si>
-    <t>برنامه / امتیازات CWC 2025</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -1276,10 +1231,28 @@
     <t>米国</t>
   </si>
   <si>
-    <t>2025クラブW杯 日程・スコア</t>
-  </si>
-  <si>
-    <t>2025米国クラブW杯</t>
+    <t>Club World Cup</t>
+  </si>
+  <si>
+    <t>Mundial de Clubes</t>
+  </si>
+  <si>
+    <t>Mondiale per Club</t>
+  </si>
+  <si>
+    <t>CDM des Clubs</t>
+  </si>
+  <si>
+    <t>Klub-WM</t>
+  </si>
+  <si>
+    <t>WK voor Clubs</t>
+  </si>
+  <si>
+    <t>クラブW杯</t>
+  </si>
+  <si>
+    <t>جام جهانی باشگاه‌ها</t>
   </si>
 </sst>
 </file>
@@ -1376,12 +1349,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
     </dxf>
     <dxf>
@@ -1439,6 +1406,12 @@
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
   </dxfs>
@@ -1455,8 +1428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I16" totalsRowShown="0">
-  <autoFilter ref="A1:I16" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -1484,16 +1457,16 @@
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time"/>
     <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="15">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="14">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1530,10 +1503,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FB1BCE-0386-7343-BA89-F3A876D40CE6}" name="club" displayName="club" ref="A1:I33" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FB1BCE-0386-7343-BA89-F3A876D40CE6}" name="club" displayName="club" ref="A1:I33" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:I33" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1CF80809-59D5-0E41-94B7-20DC62F312AB}" name="key" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{1CF80809-59D5-0E41-94B7-20DC62F312AB}" name="key" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{B947EB64-5C2B-394D-8D82-4F11121098E6}" name="en"/>
     <tableColumn id="3" xr3:uid="{3563E293-2C65-7849-A79A-437401178D48}" name="es"/>
     <tableColumn id="4" xr3:uid="{F533366D-F4E8-9147-9066-BEA50DE073C4}" name="it"/>
@@ -1554,28 +1527,28 @@
     <sortCondition ref="B1:B64"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5339E67A-26E9-8045-9783-092F1D6A8BCD}" name="date" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{5339E67A-26E9-8045-9783-092F1D6A8BCD}" name="date" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{6D744BB8-F3BD-5849-8834-2379D5480A47}" name="match"/>
     <tableColumn id="3" xr3:uid="{A77BED29-654E-8F4D-B194-94DE3DE7A4A6}" name="home"/>
     <tableColumn id="4" xr3:uid="{0D4EAC4F-1982-C748-A2ED-A83D7C3254B7}" name="away"/>
-    <tableColumn id="5" xr3:uid="{04D5479C-F511-3445-AE4D-6B902FA0E889}" name="time" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{04D5479C-F511-3445-AE4D-6B902FA0E889}" name="time" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{5509490B-711E-AB46-BCD9-0F1210AD9377}" name="location"/>
-    <tableColumn id="7" xr3:uid="{9F208AC5-6484-DA48-AA8F-77DE0A81BE38}" name="datetime" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{9F208AC5-6484-DA48-AA8F-77DE0A81BE38}" name="datetime" dataDxfId="5">
       <calculatedColumnFormula>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{124115E5-B1FC-184D-9D81-D1C46CBE1BB2}" name="home-club" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{124115E5-B1FC-184D-9D81-D1C46CBE1BB2}" name="home-club" dataDxfId="4">
       <calculatedColumnFormula>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{69B2A819-5084-CE42-A122-5F4B68D1E3B8}" name="away-club" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{69B2A819-5084-CE42-A122-5F4B68D1E3B8}" name="away-club" dataDxfId="3">
       <calculatedColumnFormula>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B55ACCD1-E874-2840-815C-2C70AD4D5185}" name="home-seed" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{B55ACCD1-E874-2840-815C-2C70AD4D5185}" name="home-seed" dataDxfId="2">
       <calculatedColumnFormula>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{363BB277-7CB6-3741-A456-52DFA684DB61}" name="away-seed" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{363BB277-7CB6-3741-A456-52DFA684DB61}" name="away-seed" dataDxfId="1">
       <calculatedColumnFormula>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6FC9520B-CB5E-C842-8C34-22324BE94F5F}" name="venue" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{6FC9520B-CB5E-C842-8C34-22324BE94F5F}" name="venue" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1880,13 +1853,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1936,333 +1909,333 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>396</v>
+      </c>
+      <c r="C2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" t="s">
+        <v>400</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>401</v>
+      </c>
+      <c r="H2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>411</v>
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>395</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>392</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" t="s">
-        <v>410</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>361</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>128</v>
+        <v>374</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>129</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>389</v>
+        <v>124</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>390</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>190</v>
+      <c r="A13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2270,86 +2243,57 @@
         <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F50" sqref="F50:G64"/>
     </sheetView>
   </sheetViews>
@@ -2384,10 +2328,10 @@
         <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
         <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
@@ -2396,10 +2340,10 @@
         <v>64</v>
       </c>
       <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
         <v>95</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
       </c>
       <c r="H1" t="s">
         <v>86</v>
@@ -4146,7 +4090,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4154,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4170,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4178,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4186,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4194,7 +4138,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4202,7 +4146,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4210,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4218,7 +4162,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4226,7 +4170,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -4234,7 +4178,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4242,7 +4186,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4250,7 +4194,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4258,7 +4202,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4266,7 +4210,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4274,7 +4218,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4282,7 +4226,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4290,7 +4234,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4298,7 +4242,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4306,7 +4250,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4314,7 +4258,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4322,7 +4266,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4330,7 +4274,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -4338,7 +4282,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -4346,7 +4290,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4354,7 +4298,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4362,7 +4306,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4370,7 +4314,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4378,7 +4322,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4386,7 +4330,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4394,7 +4338,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4402,7 +4346,7 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4456,95 +4400,95 @@
         <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="J3" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="J4" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="J5" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="J6" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="J7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="J8" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="J9" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4607,930 +4551,930 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5559,16 +5503,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
         <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
         <v>63</v>
@@ -5577,19 +5521,19 @@
         <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="H1" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="I1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
       </c>
       <c r="L1" t="s">
         <v>64</v>
@@ -5603,16 +5547,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E2" s="6">
         <v>0.83333333333333337</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G2" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5647,16 +5591,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E3" s="6">
         <v>0.5</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G3" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5691,16 +5635,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E4" s="6">
         <v>0.625</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5735,16 +5679,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E5" s="6">
         <v>0.75</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5779,16 +5723,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E6" s="6">
         <v>0.91666666666666663</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G6" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5823,16 +5767,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="E7" s="6">
         <v>0.625</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G7" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5867,16 +5811,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E8" s="6">
         <v>0.75</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5911,16 +5855,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E9" s="6">
         <v>0.875</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G9" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5955,16 +5899,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E10" s="6">
         <v>0.5</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5999,16 +5943,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E11" s="6">
         <v>0.625</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6043,16 +5987,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D12" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E12" s="6">
         <v>0.75</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G12" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6087,16 +6031,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E13" s="6">
         <v>0.625</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6131,16 +6075,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E14" s="6">
         <v>0.5</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6175,16 +6119,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E15" s="6">
         <v>0.625</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G15" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6219,16 +6163,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E16" s="6">
         <v>0.75</v>
       </c>
       <c r="F16" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6263,16 +6207,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="E17" s="6">
         <v>0.875</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G17" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6307,16 +6251,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E18" s="6">
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G18" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6351,16 +6295,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E19" s="6">
         <v>0.625</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6395,16 +6339,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E20" s="6">
         <v>0.75</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6439,16 +6383,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E21" s="6">
         <v>0.875</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G21" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6483,16 +6427,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E22" s="6">
         <v>0.5</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6527,16 +6471,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E23" s="6">
         <v>0.58333333333333337</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6571,16 +6515,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E24" s="6">
         <v>0.75</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6615,16 +6559,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E25" s="6">
         <v>0.875</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6659,16 +6603,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D26" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E26" s="6">
         <v>0.5</v>
       </c>
       <c r="F26" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G26" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6703,16 +6647,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E27" s="6">
         <v>0.625</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G27" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6747,16 +6691,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E28" s="6">
         <v>0.75</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6791,16 +6735,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E29" s="6">
         <v>0.875</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6835,16 +6779,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D30" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E30" s="6">
         <v>0.5</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G30" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6879,16 +6823,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D31" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E31" s="6">
         <v>0.625</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G31" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6923,16 +6867,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E32" s="6">
         <v>0.75</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G32" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6967,16 +6911,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D33" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E33" s="6">
         <v>0.875</v>
       </c>
       <c r="F33" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G33" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7011,16 +6955,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E34" s="6">
         <v>0.625</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G34" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7055,16 +6999,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E35" s="6">
         <v>0.625</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G35" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7099,16 +7043,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E36" s="6">
         <v>0.875</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G36" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7143,16 +7087,16 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D37" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E37" s="6">
         <v>0.875</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G37" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7187,16 +7131,16 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D38" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E38" s="6">
         <v>0.625</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G38" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7231,16 +7175,16 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E39" s="6">
         <v>0.625</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G39" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7275,16 +7219,16 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D40" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E40" s="6">
         <v>0.875</v>
       </c>
       <c r="F40" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G40" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7319,16 +7263,16 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D41" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E41" s="6">
         <v>0.875</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G41" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7363,16 +7307,16 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D42" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="E42" s="6">
         <v>0.625</v>
       </c>
       <c r="F42" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G42" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7407,16 +7351,16 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E43" s="6">
         <v>0.625</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G43" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7451,16 +7395,16 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D44" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E44" s="6">
         <v>0.875</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G44" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7495,16 +7439,16 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D45" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E45" s="6">
         <v>0.875</v>
       </c>
       <c r="F45" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G45" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7539,16 +7483,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D46" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E46" s="6">
         <v>0.625</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G46" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7583,16 +7527,16 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D47" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E47" s="6">
         <v>0.625</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G47" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7627,16 +7571,16 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D48" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E48" s="6">
         <v>0.875</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G48" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7671,16 +7615,16 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="D49" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E49" s="6">
         <v>0.875</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G49" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7724,7 +7668,7 @@
         <v>0.5</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G50" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7768,7 +7712,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F51" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G51" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7812,7 +7756,7 @@
         <v>0.5</v>
       </c>
       <c r="F52" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G52" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7856,7 +7800,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F53" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G53" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7900,7 +7844,7 @@
         <v>0.625</v>
       </c>
       <c r="F54" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G54" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7944,7 +7888,7 @@
         <v>0.875</v>
       </c>
       <c r="F55" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G55" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7988,7 +7932,7 @@
         <v>0.875</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G56" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -8032,7 +7976,7 @@
         <v>0.625</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G57" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -8076,7 +8020,7 @@
         <v>0.625</v>
       </c>
       <c r="F58" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G58" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -8120,7 +8064,7 @@
         <v>0.875</v>
       </c>
       <c r="F59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G59" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -8164,7 +8108,7 @@
         <v>0.5</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G60" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -8208,7 +8152,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F61" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G61" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -8252,7 +8196,7 @@
         <v>0.625</v>
       </c>
       <c r="F62" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G62" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -8296,7 +8240,7 @@
         <v>0.625</v>
       </c>
       <c r="F63" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G63" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -8340,7 +8284,7 @@
         <v>0.625</v>
       </c>
       <c r="F64" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G64" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>

--- a/src/stp/database/2025-mens-club-world-cup.xlsx
+++ b/src/stp/database/2025-mens-club-world-cup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630FD53B-FDEC-8042-9076-974E6E98EF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15933477-DF2D-D04C-A620-981312CE0712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="940" windowWidth="33880" windowHeight="14380" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="430">
   <si>
     <t>A1</t>
   </si>
@@ -1253,6 +1253,84 @@
   </si>
   <si>
     <t>جام جهانی باشگاه‌ها</t>
+  </si>
+  <si>
+    <t>competition-key</t>
+  </si>
+  <si>
+    <t>host-key</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>mens-club-world-cup</t>
+  </si>
+  <si>
+    <t>venue-key.1</t>
+  </si>
+  <si>
+    <t>us-atlanta-ga</t>
+  </si>
+  <si>
+    <t>venue-key.2</t>
+  </si>
+  <si>
+    <t>us-charlotte-nc</t>
+  </si>
+  <si>
+    <t>venue-key.3</t>
+  </si>
+  <si>
+    <t>us-cincinnati-oh</t>
+  </si>
+  <si>
+    <t>venue-key.4</t>
+  </si>
+  <si>
+    <t>us-pasadena-ca</t>
+  </si>
+  <si>
+    <t>venue-key.5</t>
+  </si>
+  <si>
+    <t>us-miami-fl</t>
+  </si>
+  <si>
+    <t>venue-key.6</t>
+  </si>
+  <si>
+    <t>us-nashville-tn</t>
+  </si>
+  <si>
+    <t>venue-key.7</t>
+  </si>
+  <si>
+    <t>us-east-rutherford-nj</t>
+  </si>
+  <si>
+    <t>venue-key.8</t>
+  </si>
+  <si>
+    <t>us-orlando-fl</t>
+  </si>
+  <si>
+    <t>venue-key.9</t>
+  </si>
+  <si>
+    <t>us-philadelphia-pa</t>
+  </si>
+  <si>
+    <t>venue-key.10</t>
+  </si>
+  <si>
+    <t>us-seattle-wa</t>
+  </si>
+  <si>
+    <t>venue-key.11</t>
+  </si>
+  <si>
+    <t>us-washington-dc</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1506,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I15" totalsRowShown="0">
-  <autoFilter ref="A1:I15" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I28" totalsRowShown="0">
+  <autoFilter ref="A1:I28" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -1853,13 +1931,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1906,394 +1984,498 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I2" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>395</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>111</v>
+        <v>405</v>
+      </c>
+      <c r="B3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" t="s">
+        <v>402</v>
+      </c>
+      <c r="I4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>395</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>392</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>375</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>361</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>361</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>122</v>
+        <v>361</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>361</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>122</v>
+        <v>361</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>127</v>
+        <v>374</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>128</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>412</v>
+      </c>
+      <c r="B20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>416</v>
+      </c>
+      <c r="B22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>422</v>
+      </c>
+      <c r="B25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>426</v>
+      </c>
+      <c r="B27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/src/stp/database/2025-mens-club-world-cup.xlsx
+++ b/src/stp/database/2025-mens-club-world-cup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15933477-DF2D-D04C-A620-981312CE0712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F305958-DCDD-634F-A95D-273BA88A001E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="940" windowWidth="33880" windowHeight="14380" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Colors" sheetId="9" r:id="rId4"/>
     <sheet name="#Club" sheetId="11" r:id="rId5"/>
     <sheet name="#Work" sheetId="12" r:id="rId6"/>
+    <sheet name="Properties" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="446">
   <si>
     <t>A1</t>
   </si>
@@ -1255,82 +1256,130 @@
     <t>جام جهانی باشگاه‌ها</t>
   </si>
   <si>
-    <t>competition-key</t>
-  </si>
-  <si>
-    <t>host-key</t>
-  </si>
-  <si>
     <t>usa</t>
   </si>
   <si>
     <t>mens-club-world-cup</t>
   </si>
   <si>
-    <t>venue-key.1</t>
-  </si>
-  <si>
     <t>us-atlanta-ga</t>
   </si>
   <si>
-    <t>venue-key.2</t>
-  </si>
-  <si>
     <t>us-charlotte-nc</t>
   </si>
   <si>
-    <t>venue-key.3</t>
-  </si>
-  <si>
     <t>us-cincinnati-oh</t>
   </si>
   <si>
-    <t>venue-key.4</t>
-  </si>
-  <si>
     <t>us-pasadena-ca</t>
   </si>
   <si>
-    <t>venue-key.5</t>
-  </si>
-  <si>
     <t>us-miami-fl</t>
   </si>
   <si>
-    <t>venue-key.6</t>
-  </si>
-  <si>
     <t>us-nashville-tn</t>
   </si>
   <si>
-    <t>venue-key.7</t>
-  </si>
-  <si>
     <t>us-east-rutherford-nj</t>
   </si>
   <si>
-    <t>venue-key.8</t>
-  </si>
-  <si>
     <t>us-orlando-fl</t>
   </si>
   <si>
-    <t>venue-key.9</t>
-  </si>
-  <si>
     <t>us-philadelphia-pa</t>
   </si>
   <si>
-    <t>venue-key.10</t>
-  </si>
-  <si>
     <t>us-seattle-wa</t>
   </si>
   <si>
-    <t>venue-key.11</t>
-  </si>
-  <si>
     <t>us-washington-dc</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>venue.01</t>
+  </si>
+  <si>
+    <t>venue.02</t>
+  </si>
+  <si>
+    <t>venue.03</t>
+  </si>
+  <si>
+    <t>venue.04</t>
+  </si>
+  <si>
+    <t>venue.05</t>
+  </si>
+  <si>
+    <t>venue.06</t>
+  </si>
+  <si>
+    <t>venue.07</t>
+  </si>
+  <si>
+    <t>venue.08</t>
+  </si>
+  <si>
+    <t>venue.09</t>
+  </si>
+  <si>
+    <t>color.c</t>
+  </si>
+  <si>
+    <t>color.d</t>
+  </si>
+  <si>
+    <t>color.f</t>
+  </si>
+  <si>
+    <t>color.a</t>
+  </si>
+  <si>
+    <t>color.g</t>
+  </si>
+  <si>
+    <t>color.h</t>
+  </si>
+  <si>
+    <t>color.b</t>
+  </si>
+  <si>
+    <t>color.e</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>US/Eastern</t>
   </si>
 </sst>
 </file>
@@ -1506,8 +1555,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I28" totalsRowShown="0">
-  <autoFilter ref="A1:I28" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I15" totalsRowShown="0">
+  <autoFilter ref="A1:I15" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -1629,6 +1678,21 @@
     <tableColumn id="12" xr3:uid="{6FC9520B-CB5E-C842-8C34-22324BE94F5F}" name="venue" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{721B44C2-C023-7448-B7FC-D7169662D72E}" name="Properties" displayName="Properties" ref="A1:C23" totalsRowShown="0">
+  <autoFilter ref="A1:C23" xr:uid="{721B44C2-C023-7448-B7FC-D7169662D72E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+    <sortCondition ref="A1:A23"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0D16E943-EF4C-0449-B4BF-4FE3AF2C20BD}" name="key"/>
+    <tableColumn id="2" xr3:uid="{C943D80D-22B8-E540-88DE-72A9E6E7DB08}" name="value"/>
+    <tableColumn id="3" xr3:uid="{B5F31728-16BB-6E46-8D53-CAA5D464D5A6}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1931,13 +1995,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD3"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1984,498 +2048,394 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B2" t="s">
-        <v>407</v>
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" t="s">
-        <v>406</v>
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>392</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E4" t="s">
-        <v>399</v>
-      </c>
-      <c r="F4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H4" t="s">
-        <v>402</v>
-      </c>
-      <c r="I4" t="s">
-        <v>403</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" t="s">
-        <v>395</v>
+        <v>112</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>392</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>119</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>361</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>361</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>361</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>361</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>361</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>361</v>
+        <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>374</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>375</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>179</v>
+      <c r="A13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>175</v>
+      <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="2" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>408</v>
-      </c>
-      <c r="B18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>410</v>
-      </c>
-      <c r="B19" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>412</v>
-      </c>
-      <c r="B20" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>414</v>
-      </c>
-      <c r="B21" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>416</v>
-      </c>
-      <c r="B22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>418</v>
-      </c>
-      <c r="B23" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>420</v>
-      </c>
-      <c r="B24" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>422</v>
-      </c>
-      <c r="B25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>424</v>
-      </c>
-      <c r="B26" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>426</v>
-      </c>
-      <c r="B27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>428</v>
-      </c>
-      <c r="B28" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4545,7 +4505,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8499,4 +8459,238 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C9197-3625-AD4B-8197-7EB5D5DF751E}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/stp/database/2025-mens-club-world-cup.xlsx
+++ b/src/stp/database/2025-mens-club-world-cup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F59C5-2931-2348-A2C8-A629DD3BBF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1114F47-74F9-0046-9CE4-4887518D8481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="940" windowWidth="33880" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
   <si>
     <t>key</t>
   </si>
@@ -523,10 +523,13 @@
     <t>SAL</t>
   </si>
   <si>
-    <t>AET</t>
-  </si>
-  <si>
     <t>after-extra-time</t>
+  </si>
+  <si>
+    <t>home-known</t>
+  </si>
+  <si>
+    <t>away-known</t>
   </si>
 </sst>
 </file>
@@ -586,20 +589,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
@@ -645,28 +648,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="matches" displayName="matches" ref="A1:L64" totalsRowShown="0">
-  <autoFilter ref="A1:L64" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="matches" displayName="matches" ref="A1:N64" totalsRowShown="0">
+  <autoFilter ref="A1:N64" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N64">
     <sortCondition ref="A1:A64"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="match"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="time"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="venue" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-team" dataDxfId="6">
-      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="home-known" dataDxfId="6">
+      <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-team" dataDxfId="5">
-      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="away-known" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="14" xr3:uid="{A40AAB0D-A0B1-3345-9A60-F680570019C2}" name="home-team"/>
+    <tableColumn id="13" xr3:uid="{1F35270E-0F24-8941-846D-4F74098A88D0}" name="away-team"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="home-score" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="away-score" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{A57BDB3C-9021-7745-9981-0F384DF7673B}" name="after-extra-time" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="home-tiebreaker" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="away-tiebreaker" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{A57BDB3C-9021-7745-9981-0F384DF7673B}" name="after-extra-time" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="home-tiebreaker" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="away-tiebreaker" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1214,23 +1219,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1247,28 +1252,34 @@
         <v>59</v>
       </c>
       <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1285,24 +1296,20 @@
         <v>5</v>
       </c>
       <c r="F2" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>AHL</v>
       </c>
       <c r="G2" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>MIA</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1319,24 +1326,20 @@
         <v>3</v>
       </c>
       <c r="F3" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BAY</v>
       </c>
       <c r="G3" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AKL</v>
       </c>
-      <c r="H3" s="2">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1353,24 +1356,20 @@
         <v>4</v>
       </c>
       <c r="F4" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PSG</v>
       </c>
       <c r="G4" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ATM</v>
       </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1387,24 +1386,20 @@
         <v>7</v>
       </c>
       <c r="F5" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PAL</v>
       </c>
       <c r="G5" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>POR</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1421,24 +1416,20 @@
         <v>10</v>
       </c>
       <c r="F6" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BOT</v>
       </c>
       <c r="G6" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SEA</v>
       </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1455,24 +1446,20 @@
         <v>1</v>
       </c>
       <c r="F7" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CHE</v>
       </c>
       <c r="G7" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>LAF</v>
       </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1489,24 +1476,20 @@
         <v>5</v>
       </c>
       <c r="F8" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BOC</v>
       </c>
       <c r="G8" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SLB</v>
       </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1523,24 +1506,20 @@
         <v>9</v>
       </c>
       <c r="F9" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>FLA</v>
       </c>
       <c r="G9" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>EST</v>
       </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1557,24 +1536,20 @@
         <v>7</v>
       </c>
       <c r="F10" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>FLU</v>
       </c>
       <c r="G10" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BVB</v>
       </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1591,24 +1566,20 @@
         <v>10</v>
       </c>
       <c r="F11" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>RIV</v>
       </c>
       <c r="G11" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>URD</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1625,24 +1596,20 @@
         <v>8</v>
       </c>
       <c r="F12" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>UHD</v>
       </c>
       <c r="G12" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>MSU</v>
       </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1659,24 +1626,20 @@
         <v>4</v>
       </c>
       <c r="F13" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CFM</v>
       </c>
       <c r="G13" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>INT</v>
       </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2</v>
-      </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1693,24 +1656,20 @@
         <v>9</v>
       </c>
       <c r="F14" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MCI</v>
       </c>
       <c r="G14" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>WAC</v>
       </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1727,24 +1686,20 @@
         <v>5</v>
       </c>
       <c r="F15" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>RMA</v>
       </c>
       <c r="G15" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>HIL</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1761,24 +1716,20 @@
         <v>3</v>
       </c>
       <c r="F16" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PAC</v>
       </c>
       <c r="G16" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SAL</v>
       </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1795,24 +1746,20 @@
         <v>11</v>
       </c>
       <c r="F17" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>AIN</v>
       </c>
       <c r="G17" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>JUV</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>2</v>
-      </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1829,24 +1776,20 @@
         <v>7</v>
       </c>
       <c r="F18" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PAL</v>
       </c>
       <c r="G18" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AHL</v>
       </c>
-      <c r="H18" s="2">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1863,24 +1806,20 @@
         <v>1</v>
       </c>
       <c r="F19" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MIA</v>
       </c>
       <c r="G19" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>POR</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3</v>
-      </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1897,24 +1836,20 @@
         <v>10</v>
       </c>
       <c r="F20" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SEA</v>
       </c>
       <c r="G20" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ATM</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>3</v>
-      </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1931,24 +1866,20 @@
         <v>4</v>
       </c>
       <c r="F21" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PSG</v>
       </c>
       <c r="G21" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BOT</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1965,24 +1896,20 @@
         <v>8</v>
       </c>
       <c r="F22" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SLB</v>
       </c>
       <c r="G22" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AKL</v>
       </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1999,24 +1926,20 @@
         <v>9</v>
       </c>
       <c r="F23" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>FLA</v>
       </c>
       <c r="G23" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CHE</v>
       </c>
-      <c r="H23" s="2">
-        <v>6</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2033,24 +1956,20 @@
         <v>6</v>
       </c>
       <c r="F24" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>LAF</v>
       </c>
       <c r="G24" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>EST</v>
       </c>
-      <c r="H24" s="2">
-        <v>3</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2067,24 +1986,20 @@
         <v>5</v>
       </c>
       <c r="F25" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BAY</v>
       </c>
       <c r="G25" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BOC</v>
       </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2101,24 +2016,20 @@
         <v>3</v>
       </c>
       <c r="F26" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MSU</v>
       </c>
       <c r="G26" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BVB</v>
       </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2135,24 +2046,20 @@
         <v>10</v>
       </c>
       <c r="F27" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>INT</v>
       </c>
       <c r="G27" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>URD</v>
       </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2169,24 +2076,20 @@
         <v>7</v>
       </c>
       <c r="F28" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>FLU</v>
       </c>
       <c r="G28" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>UHD</v>
       </c>
-      <c r="H28" s="2">
-        <v>3</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2203,24 +2106,20 @@
         <v>4</v>
       </c>
       <c r="F29" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>RIV</v>
       </c>
       <c r="G29" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CFM</v>
       </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>3</v>
-      </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2237,24 +2136,20 @@
         <v>9</v>
       </c>
       <c r="F30" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>JUV</v>
       </c>
       <c r="G30" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>WAC</v>
       </c>
-      <c r="H30" s="2">
-        <v>2</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2271,24 +2166,20 @@
         <v>2</v>
       </c>
       <c r="F31" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>RMA</v>
       </c>
       <c r="G31" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>PAC</v>
       </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2305,24 +2196,20 @@
         <v>11</v>
       </c>
       <c r="F32" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SAL</v>
       </c>
       <c r="G32" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>HIL</v>
       </c>
-      <c r="H32" s="2">
-        <v>3</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2339,24 +2226,20 @@
         <v>1</v>
       </c>
       <c r="F33" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MCI</v>
       </c>
       <c r="G33" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AIN</v>
       </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2373,24 +2256,20 @@
         <v>10</v>
       </c>
       <c r="F34" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SEA</v>
       </c>
       <c r="G34" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>PSG</v>
       </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
-        <v>2</v>
-      </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2407,24 +2286,20 @@
         <v>4</v>
       </c>
       <c r="F35" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ATM</v>
       </c>
       <c r="G35" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BOT</v>
       </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2441,24 +2316,20 @@
         <v>5</v>
       </c>
       <c r="F36" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MIA</v>
       </c>
       <c r="G36" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>PAL</v>
       </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>2</v>
-      </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2475,24 +2346,20 @@
         <v>7</v>
       </c>
       <c r="F37" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>POR</v>
       </c>
       <c r="G37" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AHL</v>
       </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2509,24 +2376,20 @@
         <v>6</v>
       </c>
       <c r="F38" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>AKL</v>
       </c>
       <c r="G38" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BOC</v>
       </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2543,24 +2406,20 @@
         <v>2</v>
       </c>
       <c r="F39" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SLB</v>
       </c>
       <c r="G39" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BAY</v>
       </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2577,24 +2436,20 @@
         <v>8</v>
       </c>
       <c r="F40" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>LAF</v>
       </c>
       <c r="G40" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>FLA</v>
       </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2611,24 +2466,20 @@
         <v>9</v>
       </c>
       <c r="F41" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>EST</v>
       </c>
       <c r="G41" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CHE</v>
       </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>3</v>
-      </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2645,24 +2496,20 @@
         <v>3</v>
       </c>
       <c r="F42" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BVB</v>
       </c>
       <c r="G42" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>UHD</v>
       </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2679,24 +2526,20 @@
         <v>5</v>
       </c>
       <c r="F43" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MSU</v>
       </c>
       <c r="G43" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>FLU</v>
       </c>
-      <c r="H43" s="2">
-        <v>2</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2713,24 +2556,20 @@
         <v>10</v>
       </c>
       <c r="F44" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>INT</v>
       </c>
       <c r="G44" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>RIV</v>
       </c>
-      <c r="H44" s="2">
-        <v>2</v>
-      </c>
-      <c r="I44" s="2">
-        <v>1</v>
-      </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2747,24 +2586,20 @@
         <v>4</v>
       </c>
       <c r="F45" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>URD</v>
       </c>
       <c r="G45" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CFM</v>
       </c>
-      <c r="H45" s="2">
-        <v>2</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1</v>
-      </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2781,24 +2616,20 @@
         <v>8</v>
       </c>
       <c r="F46" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>JUV</v>
       </c>
       <c r="G46" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>MCI</v>
       </c>
-      <c r="H46" s="2">
-        <v>3</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2815,24 +2646,20 @@
         <v>11</v>
       </c>
       <c r="F47" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>WAC</v>
       </c>
       <c r="G47" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AIN</v>
       </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2">
-        <v>1</v>
-      </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2849,24 +2676,20 @@
         <v>6</v>
       </c>
       <c r="F48" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>HIL</v>
       </c>
       <c r="G48" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>PAC</v>
       </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>3</v>
-      </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2883,24 +2706,20 @@
         <v>9</v>
       </c>
       <c r="F49" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SAL</v>
       </c>
       <c r="G49" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>RMA</v>
       </c>
-      <c r="H49" s="2">
-        <v>2</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2916,25 +2735,21 @@
       <c r="E50">
         <v>9</v>
       </c>
-      <c r="F50" t="s">
-        <v>100</v>
-      </c>
-      <c r="G50" t="s">
-        <v>148</v>
-      </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K50" s="1"/>
+      <c r="F50" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
       <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2950,25 +2765,21 @@
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="F51" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" t="s">
-        <v>104</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2">
-        <v>4</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K51" s="1"/>
+      <c r="F51" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
       <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2984,23 +2795,21 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" t="s">
-        <v>109</v>
-      </c>
-      <c r="H52" s="2">
-        <v>4</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="F52" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
       <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3016,23 +2825,21 @@
       <c r="E53">
         <v>5</v>
       </c>
-      <c r="F53" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" t="s">
-        <v>113</v>
-      </c>
-      <c r="H53" s="2">
-        <v>2</v>
-      </c>
-      <c r="I53" s="2">
-        <v>4</v>
-      </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="F53" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
       <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3048,23 +2855,21 @@
       <c r="E54">
         <v>2</v>
       </c>
-      <c r="F54" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" t="s">
-        <v>117</v>
-      </c>
-      <c r="H54" s="2">
-        <v>2</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="F54" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
       <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3080,25 +2885,21 @@
       <c r="E55">
         <v>8</v>
       </c>
-      <c r="F55" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" t="s">
-        <v>121</v>
-      </c>
-      <c r="H55" s="2">
-        <v>3</v>
-      </c>
-      <c r="I55" s="2">
-        <v>4</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K55" s="1"/>
+      <c r="F55" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
       <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3114,23 +2915,21 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" t="s">
-        <v>124</v>
-      </c>
-      <c r="G56" t="s">
-        <v>125</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="F56" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
       <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3146,23 +2945,21 @@
       <c r="E57">
         <v>5</v>
       </c>
-      <c r="F57" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" t="s">
-        <v>129</v>
-      </c>
-      <c r="H57" s="2">
-        <v>2</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="F57" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
       <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3178,25 +2975,21 @@
       <c r="E58">
         <v>8</v>
       </c>
-      <c r="F58" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" s="2">
-        <v>2</v>
-      </c>
-      <c r="I58" s="2">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K58" s="1"/>
+      <c r="F58" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
       <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3212,23 +3005,21 @@
       <c r="E59">
         <v>9</v>
       </c>
-      <c r="F59" t="s">
-        <v>100</v>
-      </c>
-      <c r="G59" t="s">
-        <v>104</v>
-      </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2">
-        <v>2</v>
-      </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="F59" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
       <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3244,23 +3035,21 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" t="s">
-        <v>108</v>
-      </c>
-      <c r="G60" t="s">
-        <v>113</v>
-      </c>
-      <c r="H60" s="2">
-        <v>2</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="F60" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
       <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3276,23 +3065,21 @@
       <c r="E61">
         <v>7</v>
       </c>
-      <c r="F61" t="s">
-        <v>124</v>
-      </c>
-      <c r="G61" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="2">
-        <v>3</v>
-      </c>
-      <c r="I61" s="2">
-        <v>2</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="F61" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
       <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3308,23 +3095,21 @@
       <c r="E62">
         <v>7</v>
       </c>
-      <c r="F62" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>2</v>
-      </c>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="F62" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
       <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3340,23 +3125,21 @@
       <c r="E63">
         <v>7</v>
       </c>
-      <c r="F63" t="s">
-        <v>108</v>
-      </c>
-      <c r="G63" t="s">
-        <v>124</v>
-      </c>
-      <c r="H63" s="2">
-        <v>4</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="F63" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
       <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -3372,21 +3155,19 @@
       <c r="E64">
         <v>7</v>
       </c>
-      <c r="F64" t="s">
-        <v>104</v>
-      </c>
-      <c r="G64" t="s">
-        <v>108</v>
-      </c>
-      <c r="H64" s="2">
-        <v>3</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="F64" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
       <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/stp/database/2025-mens-club-world-cup.xlsx
+++ b/src/stp/database/2025-mens-club-world-cup.xlsx
@@ -3298,6 +3298,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>BOT</t>
+        </is>
+      </c>
       <c r="J50" s="2" t="n">
         <v>1</v>
       </c>
@@ -3338,6 +3348,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
       <c r="J51" s="2" t="n">
         <v>1</v>
       </c>
@@ -3378,6 +3398,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
       <c r="J52" s="2" t="n">
         <v>4</v>
       </c>
@@ -3416,6 +3446,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>BAY</t>
+        </is>
+      </c>
       <c r="J53" s="2" t="n">
         <v>2</v>
       </c>
@@ -3454,6 +3494,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
       <c r="J54" s="2" t="n">
         <v>0</v>
       </c>
@@ -3492,6 +3542,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>HIL</t>
+        </is>
+      </c>
       <c r="J55" s="2" t="n">
         <v>3</v>
       </c>
@@ -3532,6 +3592,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>RMA</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>JUV</t>
+        </is>
+      </c>
       <c r="J56" s="2" t="n">
         <v>1</v>
       </c>
@@ -3570,6 +3640,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>BVB</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>CFM</t>
+        </is>
+      </c>
       <c r="J57" s="2" t="n">
         <v>2</v>
       </c>
@@ -3608,6 +3688,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>HIL</t>
+        </is>
+      </c>
       <c r="J58" s="2" t="n">
         <v>2</v>
       </c>
@@ -3646,6 +3736,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
       <c r="J59" s="2" t="n">
         <v>1</v>
       </c>
@@ -3684,6 +3784,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>BAY</t>
+        </is>
+      </c>
       <c r="J60" s="2" t="n">
         <v>2</v>
       </c>
@@ -3722,6 +3832,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>RMA</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>BVB</t>
+        </is>
+      </c>
       <c r="J61" s="2" t="n">
         <v>3</v>
       </c>
@@ -3760,6 +3880,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>FLU</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
       <c r="J62" s="2" t="n">
         <v>0</v>
       </c>
@@ -3798,6 +3928,16 @@
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>RMA</t>
+        </is>
+      </c>
       <c r="J63" s="2" t="n">
         <v>4</v>
       </c>
@@ -3835,6 +3975,16 @@
       <c r="G64">
         <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v/>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
       </c>
       <c r="J64" s="2" t="n">
         <v>3</v>
